--- a/output/basic/bounds_log.xlsx
+++ b/output/basic/bounds_log.xlsx
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003834923108418783</v>
+        <v>0.004359376430511474</v>
       </c>
     </row>
   </sheetData>
